--- a/Main Learner/DATA/Winter 2023 Scotia DSD Data Dictionary.xlsx
+++ b/Main Learner/DATA/Winter 2023 Scotia DSD Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scotiabank-my.sharepoint.com/personal/lucas_lu_scotiabank_com/Documents/Projects/GDA/DSD/data_shared/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofwaterloo-my.sharepoint.com/personal/lrwatson_uwaterloo_ca/Documents/Documents/GitHub/Scotiabank-Data-Science-Discovery-Days/Main Learner/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="156" documentId="8_{E8234DF7-55A7-4BE0-AB95-DFDFB9AAEF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FB77377-09FE-4B86-A9A0-2E2B81B32915}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="2" r:id="rId1"/>
@@ -1220,13 +1220,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1512,19 +1510,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="101.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="101.73046875" customWidth="1"/>
+    <col min="3" max="3" width="36.59765625" customWidth="1"/>
+    <col min="4" max="4" width="16.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -1535,39 +1533,39 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -1575,77 +1573,77 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B14" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
@@ -1656,7 +1654,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
@@ -1667,7 +1665,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>161</v>
       </c>
@@ -1678,7 +1676,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
@@ -1689,7 +1687,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>190</v>
       </c>
@@ -1700,7 +1698,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
@@ -1711,7 +1709,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>207</v>
       </c>
@@ -1722,7 +1720,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -1733,7 +1731,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -1744,7 +1742,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>220</v>
       </c>
@@ -1755,7 +1753,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>177</v>
       </c>
@@ -1766,7 +1764,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
@@ -1777,7 +1775,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>354</v>
       </c>
@@ -1788,7 +1786,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
@@ -1799,7 +1797,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>238</v>
       </c>
@@ -1810,7 +1808,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>275</v>
       </c>
@@ -1821,18 +1819,18 @@
         <v>367</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B31" t="s">
         <v>308</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>256</v>
       </c>
@@ -1843,7 +1841,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>93</v>
       </c>
@@ -1854,7 +1852,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>94</v>
       </c>
@@ -1865,7 +1863,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>95</v>
       </c>
@@ -1876,7 +1874,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>327</v>
       </c>
@@ -1887,7 +1885,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>306</v>
       </c>
@@ -1898,7 +1896,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
@@ -1909,7 +1907,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>97</v>
       </c>
@@ -1920,7 +1918,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>163</v>
       </c>
@@ -1931,7 +1929,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>193</v>
       </c>
@@ -1942,7 +1940,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>209</v>
       </c>
@@ -1953,7 +1951,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>98</v>
       </c>
@@ -1964,7 +1962,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>222</v>
       </c>
@@ -1975,7 +1973,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>180</v>
       </c>
@@ -1986,7 +1984,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -1997,7 +1995,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>356</v>
       </c>
@@ -2008,7 +2006,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
@@ -2019,7 +2017,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>240</v>
       </c>
@@ -2030,7 +2028,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>277</v>
       </c>
@@ -2041,18 +2039,18 @@
         <v>367</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B51" t="s">
         <v>310</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>101</v>
       </c>
@@ -2063,7 +2061,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
@@ -2074,7 +2072,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>294</v>
       </c>
@@ -2085,7 +2083,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>103</v>
       </c>
@@ -2096,7 +2094,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>104</v>
       </c>
@@ -2107,7 +2105,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
@@ -2118,7 +2116,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>195</v>
       </c>
@@ -2129,7 +2127,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>224</v>
       </c>
@@ -2140,7 +2138,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>182</v>
       </c>
@@ -2151,7 +2149,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
@@ -2162,18 +2160,18 @@
         <v>273</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B62" t="s">
         <v>312</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>258</v>
       </c>
@@ -2184,7 +2182,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>106</v>
       </c>
@@ -2195,7 +2193,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>107</v>
       </c>
@@ -2206,7 +2204,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>350</v>
       </c>
@@ -2217,7 +2215,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>108</v>
       </c>
@@ -2228,7 +2226,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>226</v>
       </c>
@@ -2239,7 +2237,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>109</v>
       </c>
@@ -2250,7 +2248,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>242</v>
       </c>
@@ -2261,7 +2259,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>260</v>
       </c>
@@ -2272,7 +2270,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>110</v>
       </c>
@@ -2283,7 +2281,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>296</v>
       </c>
@@ -2294,7 +2292,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>352</v>
       </c>
@@ -2305,7 +2303,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>111</v>
       </c>
@@ -2316,7 +2314,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>167</v>
       </c>
@@ -2327,7 +2325,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>197</v>
       </c>
@@ -2338,7 +2336,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>112</v>
       </c>
@@ -2349,7 +2347,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>228</v>
       </c>
@@ -2360,7 +2358,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>113</v>
       </c>
@@ -2371,7 +2369,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>358</v>
       </c>
@@ -2382,7 +2380,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>244</v>
       </c>
@@ -2393,7 +2391,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>279</v>
       </c>
@@ -2404,18 +2402,18 @@
         <v>367</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B84" t="s">
         <v>314</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>262</v>
       </c>
@@ -2426,7 +2424,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>114</v>
       </c>
@@ -2437,7 +2435,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>115</v>
       </c>
@@ -2448,7 +2446,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>116</v>
       </c>
@@ -2459,7 +2457,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>117</v>
       </c>
@@ -2470,7 +2468,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>118</v>
       </c>
@@ -2481,7 +2479,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>119</v>
       </c>
@@ -2492,7 +2490,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>120</v>
       </c>
@@ -2503,7 +2501,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>230</v>
       </c>
@@ -2514,7 +2512,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>121</v>
       </c>
@@ -2525,7 +2523,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>246</v>
       </c>
@@ -2536,7 +2534,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>281</v>
       </c>
@@ -2547,18 +2545,18 @@
         <v>367</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B97" t="s">
         <v>316</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>264</v>
       </c>
@@ -2569,7 +2567,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>122</v>
       </c>
@@ -2580,7 +2578,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>298</v>
       </c>
@@ -2591,7 +2589,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>123</v>
       </c>
@@ -2602,7 +2600,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>124</v>
       </c>
@@ -2613,7 +2611,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>125</v>
       </c>
@@ -2624,7 +2622,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>199</v>
       </c>
@@ -2635,7 +2633,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>126</v>
       </c>
@@ -2646,7 +2644,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>211</v>
       </c>
@@ -2657,7 +2655,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>232</v>
       </c>
@@ -2668,7 +2666,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>127</v>
       </c>
@@ -2679,7 +2677,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>248</v>
       </c>
@@ -2690,7 +2688,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>283</v>
       </c>
@@ -2701,18 +2699,18 @@
         <v>367</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B111" t="s">
         <v>318</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>266</v>
       </c>
@@ -2723,7 +2721,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>128</v>
       </c>
@@ -2734,7 +2732,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>129</v>
       </c>
@@ -2745,7 +2743,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>300</v>
       </c>
@@ -2756,7 +2754,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>130</v>
       </c>
@@ -2767,7 +2765,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>131</v>
       </c>
@@ -2778,7 +2776,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>169</v>
       </c>
@@ -2789,7 +2787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>132</v>
       </c>
@@ -2800,7 +2798,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>133</v>
       </c>
@@ -2811,7 +2809,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>184</v>
       </c>
@@ -2822,7 +2820,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>285</v>
       </c>
@@ -2833,18 +2831,18 @@
         <v>367</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B123" t="s">
         <v>320</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>134</v>
       </c>
@@ -2855,7 +2853,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>135</v>
       </c>
@@ -2866,7 +2864,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>136</v>
       </c>
@@ -2877,7 +2875,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>137</v>
       </c>
@@ -2888,7 +2886,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>171</v>
       </c>
@@ -2899,7 +2897,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>201</v>
       </c>
@@ -2910,7 +2908,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>138</v>
       </c>
@@ -2921,7 +2919,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>213</v>
       </c>
@@ -2932,7 +2930,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>186</v>
       </c>
@@ -2943,7 +2941,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>139</v>
       </c>
@@ -2954,7 +2952,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>250</v>
       </c>
@@ -2965,7 +2963,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>287</v>
       </c>
@@ -2976,18 +2974,18 @@
         <v>367</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B136" t="s">
         <v>322</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
@@ -2998,7 +2996,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
@@ -3009,7 +3007,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>329</v>
       </c>
@@ -3020,7 +3018,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>302</v>
       </c>
@@ -3031,7 +3029,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -3042,7 +3040,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>173</v>
       </c>
@@ -3053,7 +3051,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
@@ -3064,7 +3062,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>203</v>
       </c>
@@ -3075,7 +3073,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
@@ -3086,7 +3084,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>215</v>
       </c>
@@ -3097,7 +3095,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -3108,7 +3106,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
@@ -3119,7 +3117,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>234</v>
       </c>
@@ -3130,7 +3128,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>188</v>
       </c>
@@ -3141,7 +3139,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>147</v>
       </c>
@@ -3152,7 +3150,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>360</v>
       </c>
@@ -3163,7 +3161,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>252</v>
       </c>
@@ -3174,7 +3172,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>289</v>
       </c>
@@ -3185,18 +3183,18 @@
         <v>367</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B155" t="s">
         <v>324</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>268</v>
       </c>
@@ -3207,7 +3205,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>148</v>
       </c>
@@ -3218,7 +3216,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>331</v>
       </c>
@@ -3229,7 +3227,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>149</v>
       </c>
@@ -3240,7 +3238,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>150</v>
       </c>
@@ -3251,7 +3249,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>205</v>
       </c>
@@ -3262,7 +3260,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>217</v>
       </c>
@@ -3273,7 +3271,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>151</v>
       </c>
@@ -3284,7 +3282,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>152</v>
       </c>
@@ -3295,7 +3293,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>236</v>
       </c>
@@ -3306,7 +3304,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>153</v>
       </c>
@@ -3317,7 +3315,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>254</v>
       </c>
@@ -3328,7 +3326,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>291</v>
       </c>
@@ -3339,18 +3337,18 @@
         <v>367</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B169" t="s">
         <v>326</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>270</v>
       </c>
@@ -3361,7 +3359,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>154</v>
       </c>
@@ -3372,7 +3370,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>155</v>
       </c>
@@ -3383,7 +3381,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>304</v>
       </c>
@@ -3394,7 +3392,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>156</v>
       </c>
@@ -3405,7 +3403,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>157</v>
       </c>
@@ -3413,7 +3411,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>346</v>
       </c>
